--- a/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
+++ b/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
@@ -7,6 +7,11 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="wgp+Mho+JgvU0EoIjDTpUVkiQ5opjNvCp+RrwD5vLyM="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
